--- a/2021.xlsx
+++ b/2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8E123C2F-7AF9-41F1-A132-F5884F9C9D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81CF8734-29C7-4BBF-9FDD-4F62F7B80708}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8E123C2F-7AF9-41F1-A132-F5884F9C9D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EB2F8E-A1A2-4B4F-96A7-6AD97AF7F8BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1095">
   <si>
     <t>No. Pesanan</t>
   </si>
@@ -3291,13 +3291,22 @@
   </si>
   <si>
     <t>linapermata954</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>JumlahPesanan</t>
+  </si>
+  <si>
+    <t>Cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3334,6 +3343,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3353,7 +3367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3369,6 +3383,21 @@
       <top/>
       <bottom style="thin">
         <color rgb="FFF0F0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3390,11 +3419,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3672,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E522"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,9 +3713,12 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3699,1176 +3731,1941 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>520</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="G11" t="s">
+        <v>571</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>531</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>490</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="G15" t="s">
+        <v>554</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>457</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>511</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>525</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="G29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>581</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="G36" t="s">
+        <v>517</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="G39" t="s">
+        <v>534</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>445</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>382</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>482</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="G43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="G47" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="G49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="G50" t="s">
+        <v>578</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="G51" t="s">
+        <v>454</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="G52" t="s">
+        <v>413</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="G53" t="s">
+        <v>344</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="G54" t="s">
+        <v>465</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="G55" t="s">
+        <v>472</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>562</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="G57" t="s">
+        <v>375</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="G58" t="s">
+        <v>177</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="G59" t="s">
+        <v>548</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="G61" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>475</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="G64" t="s">
+        <v>625</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>634</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>663</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>716</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="G68" t="s">
+        <v>698</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="G69" t="s">
+        <v>689</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>686</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="G71" t="s">
+        <v>676</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="G72" t="s">
+        <v>637</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>658</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="G74" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="G77" t="s">
+        <v>733</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="G78" t="s">
+        <v>721</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>153</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="G82" t="s">
+        <v>228</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>314</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>287</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -4882,8 +5679,17 @@
         <v>8</v>
       </c>
       <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -4897,8 +5703,17 @@
         <v>6</v>
       </c>
       <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>43</v>
       </c>
@@ -4912,8 +5727,17 @@
         <v>8</v>
       </c>
       <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -4927,8 +5751,17 @@
         <v>14</v>
       </c>
       <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>441</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
@@ -4942,8 +5775,17 @@
         <v>14</v>
       </c>
       <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>438</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>48</v>
       </c>
@@ -4957,8 +5799,17 @@
         <v>6</v>
       </c>
       <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>333</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>50</v>
       </c>
@@ -4972,8 +5823,17 @@
         <v>6</v>
       </c>
       <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>349</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
@@ -4987,8 +5847,17 @@
         <v>14</v>
       </c>
       <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>54</v>
       </c>
@@ -5002,8 +5871,17 @@
         <v>14</v>
       </c>
       <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
@@ -5017,8 +5895,17 @@
         <v>14</v>
       </c>
       <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>403</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5919,17 @@
         <v>8</v>
       </c>
       <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>422</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>58</v>
       </c>
@@ -5047,8 +5943,17 @@
         <v>8</v>
       </c>
       <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>356</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>60</v>
       </c>
@@ -5062,8 +5967,17 @@
         <v>8</v>
       </c>
       <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>400</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -5078,7 +5992,7 @@
       </c>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>64</v>
       </c>
@@ -5093,7 +6007,7 @@
       </c>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>66</v>
       </c>
@@ -5108,7 +6022,7 @@
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>67</v>
       </c>
@@ -5123,7 +6037,7 @@
       </c>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>68</v>
       </c>
@@ -5138,7 +6052,7 @@
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>69</v>
       </c>
@@ -5153,7 +6067,7 @@
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>70</v>
       </c>
@@ -5168,7 +6082,7 @@
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>72</v>
       </c>
@@ -5183,7 +6097,7 @@
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>74</v>
       </c>
@@ -5198,7 +6112,7 @@
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>76</v>
       </c>
@@ -5213,7 +6127,7 @@
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>78</v>
       </c>
@@ -5228,7 +6142,7 @@
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>80</v>
       </c>
@@ -5243,7 +6157,7 @@
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>82</v>
       </c>
@@ -5258,7 +6172,7 @@
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>84</v>
       </c>
